--- a/biology/Botanique/Asystasia/Asystasia.xlsx
+++ b/biology/Botanique/Asystasia/Asystasia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Asystasia, appartenant à la famille des Acanthacées; comprend environ 70 espèces.
 On les rencontre en Afrique et de l'Inde à l'Australie. Huit espèces sont originaires d'Afrique du Sud.
@@ -512,7 +524,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Asystasia africana (S. Moore) C.B. Clarke
 Asystasia albiflora Ensermu
@@ -540,7 +554,7 @@
 Asystasia neesiana Nees
 Asystasia subbiflora C.B. Clarke
 Asystasia vogeliana Benth.
-Selon NCBI  (6 Aug 2010)[1] :
+Selon NCBI  (6 Aug 2010) :
 Asystasia gangetica
 Asystasia sp. Daniel 9129</t>
         </is>
@@ -570,7 +584,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Asystasia gangetica est une plante ornementale.</t>
         </is>
